--- a/biology/Botanique/Jardin_botanique_de_Brooklyn/Jardin_botanique_de_Brooklyn.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Brooklyn/Jardin_botanique_de_Brooklyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Brooklyn (anglais : Brooklyn Botanic Garden, BBG) est un jardin botanique dans l'arrondissement de Brooklyn à New York. Situé près des quartiers Prospect Heights, Crown Heights et Park Slope, le jardin a une superficie de 21 hectares. 
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1910, le jardin a plus de 10 000 taxons de plantes et accueille chaque année plus de 900 000 visiteurs.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Brooklyn est le jardin botanique le plus visité des États-Unis et se situe dans le quartier de Brooklyn. C'est un endroit où se reposer, en plein cœur de la jungle urbaine. Il est possible d'y faire des visites guidées.
 Ce jardin est particulièrement connu pour ses variétés de plantes japonaises, réunies dans un espace dédié : le Japanese Hill-and-Pond Garden. Il s'agit d'une reconstruction miniature d'un véritable paysage japonais, avec sa maisonnette, ses petites lanternes, son pont...
